--- a/doc/暑期工作.xlsx
+++ b/doc/暑期工作.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,22 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30-14:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读nndl-3小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续阅读nndl-3小时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +121,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -237,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,30 +295,17 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -426,13 +442,30 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -440,12 +473,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -462,15 +497,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F18" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:F18" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:F18"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="日期" dataDxfId="6"/>
-    <tableColumn id="2" name="时间段" dataDxfId="5"/>
-    <tableColumn id="3" name="工作学习" dataDxfId="4"/>
-    <tableColumn id="4" name="今日完成状况" dataDxfId="3"/>
-    <tableColumn id="5" name="明日计划" dataDxfId="2"/>
-    <tableColumn id="6" name="本周计划" dataDxfId="1"/>
+    <tableColumn id="1" name="日期" dataDxfId="5"/>
+    <tableColumn id="2" name="时间段" dataDxfId="4"/>
+    <tableColumn id="3" name="工作学习" dataDxfId="3"/>
+    <tableColumn id="4" name="今日完成状况" dataDxfId="2"/>
+    <tableColumn id="5" name="明日计划" dataDxfId="1"/>
+    <tableColumn id="6" name="本周计划" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -788,15 +823,27 @@
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="17">
+        <v>43843</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="16">
+        <v>43844</v>
+      </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>

--- a/doc/暑期工作.xlsx
+++ b/doc/暑期工作.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,15 +61,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>部分完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续阅读nndl-3小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>阅读nndl-3小时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部分完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续阅读nndl-3小时</t>
+    <t>12:30-13:15
+13:30-xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">完成nndl-3小时
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续nndl-3小时PRML</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,6 +314,9 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,7 +794,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -830,13 +847,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="F3" s="12"/>
     </row>
@@ -844,9 +861,15 @@
       <c r="A4" s="16">
         <v>43844</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
     </row>

--- a/doc/暑期工作.xlsx
+++ b/doc/暑期工作.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>继续nndl-3小时PRML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:00-17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,6 +329,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,7 +809,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -874,10 +889,18 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="17">
+        <v>43870</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
     </row>
